--- a/ig/ch-elm/StructureDefinition-ch-elm-servicerequest-laboratory-order.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-servicerequest-laboratory-order.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="502">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-trialuse</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-13T14:50:01+02:00</t>
+    <t>2023-11-16T14:46:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-lab-report/StructureDefinition/ch-lab-servicerequest-laboratory-order</t>
+    <t>http://fhir.ch/ig/ch-lab-report/StructureDefinition/ch-lab-report-servicerequest</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -127,6 +127,129 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: Workflow Pattern</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: Quality Improvement and Clinical Knowledge (QUICK)</t>
   </si>
   <si>
     <t>diagnostic request
@@ -150,7 +273,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}ch-lab-sr1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/ServiceRequest-eu-lab')}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}ch-lab-sr1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/ServiceRequest-eu-lab')}code-or-basedOn-required:must have a code for what is beeing requested, or a basedOn element {code.exists() or basedOn.exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -309,33 +432,57 @@
     <t>ServiceRequest.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension:basedOn-order-or-requisition</t>
+  </si>
+  <si>
+    <t>basedOn-order-or-requisition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-lab-report/StructureDefinition/composition-basedOn-order-or-requisition}
+</t>
+  </si>
+  <si>
+    <t>Document Based On Order</t>
+  </si>
+  <si>
+    <t>This extension provides a link to the order [(Reference(ServiceRequest)] or requisition [ServiceRequest.requisition (i.e., 'Request.groupIdentifier')] that this report document is based on and fulfills.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ServiceRequest.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>ServiceRequest.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -343,6 +490,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -380,6 +530,205 @@
     <t>ClinicalStatement.identifier</t>
   </si>
   <si>
+    <t>ServiceRequest.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
     <t>ServiceRequest.instantiatesCanonical</t>
   </si>
   <si>
@@ -509,15 +858,12 @@
     <t>The status of the order.</t>
   </si>
   <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
     <t>completed</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>The status of a service order.</t>
   </si>
   <si>
@@ -570,10 +916,6 @@
   </si>
   <si>
     <t>ServiceRequest.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Classification of service</t>
@@ -692,10 +1034,6 @@
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-laboratory-observation</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>CE/CNE/CWE</t>
   </si>
   <si>
@@ -1043,7 +1381,7 @@
     <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
@@ -1077,7 +1415,7 @@
     <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Request.reasonReference</t>
@@ -1200,9 +1538,6 @@
 </t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>Any other notes and comments made about the service request. For example, internal billing notes.</t>
   </si>
   <si>
@@ -1216,10 +1551,6 @@
   </si>
   <si>
     <t>ServiceRequest.patientInstruction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Patient or consumer-oriented instructions</t>
@@ -1559,7 +1890,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO42"/>
+  <dimension ref="A1:AO52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1568,13 +1899,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.9375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.47265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.9375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="28.28125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="42.28125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.203125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="100.6171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1585,4924 +1918,6099 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="9.33984375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="122.26171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="67.58203125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="33.9375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="27.73828125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="84.56640625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="157.5625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="15.64453125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.05078125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="61.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="I1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="L1" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="J1" t="s" s="1">
         <v>47</v>
       </c>
-      <c r="AN1" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AO1" t="s" s="2">
-        <v>41</v>
+      <c r="K1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>77</v>
+      </c>
+      <c r="AO1" t="s" s="1">
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>54</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>66</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="O11" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P11" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>126</v>
+        <v>158</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>41</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>69</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>191</v>
+      </c>
       <c r="P16" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>162</v>
+        <v>82</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>166</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="P17" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>171</v>
+        <v>82</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>173</v>
+        <v>82</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>92</v>
+        <v>204</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>183</v>
+        <v>82</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>184</v>
+        <v>82</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>177</v>
+        <v>212</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>176</v>
+        <v>82</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q19" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>194</v>
+        <v>82</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>198</v>
+        <v>82</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q20" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>41</v>
+        <v>228</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y21" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z21" t="s" s="2">
-        <v>214</v>
+        <v>82</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>219</v>
+        <v>82</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>184</v>
+        <v>82</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>224</v>
+        <v>82</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>225</v>
+        <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>41</v>
+        <v>242</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>228</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>41</v>
+        <v>244</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>233</v>
-      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>41</v>
+        <v>252</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>242</v>
+        <v>82</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>243</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>246</v>
+        <v>156</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="P25" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>252</v>
+        <v>82</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>253</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>255</v>
+        <v>82</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>256</v>
+        <v>110</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>41</v>
+        <v>272</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>41</v>
+        <v>273</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>41</v>
+        <v>274</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>263</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>265</v>
+        <v>110</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>41</v>
+        <v>133</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>41</v>
+        <v>289</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>271</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>273</v>
+        <v>82</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>274</v>
+        <v>187</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="P28" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>41</v>
+        <v>295</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>41</v>
+        <v>296</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>41</v>
+        <v>297</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>41</v>
+        <v>298</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>277</v>
+        <v>82</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>281</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>283</v>
+        <v>82</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>284</v>
+        <v>110</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q29" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Q29" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="R29" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>41</v>
+        <v>305</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>41</v>
+        <v>306</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>292</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>294</v>
+        <v>82</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>178</v>
+        <v>312</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>296</v>
+        <v>314</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="P30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q30" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Q30" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="R30" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>184</v>
+        <v>82</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>298</v>
+        <v>82</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>299</v>
+        <v>82</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>301</v>
+        <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>303</v>
+        <v>82</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>41</v>
+        <v>326</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>310</v>
+        <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>303</v>
+        <v>82</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>41</v>
+        <v>330</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>184</v>
+        <v>296</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>317</v>
+        <v>335</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>41</v>
+        <v>336</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>41</v>
+        <v>337</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>303</v>
+        <v>82</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>41</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="P33" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>41</v>
+        <v>337</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>303</v>
+        <v>82</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>178</v>
+        <v>347</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>184</v>
+        <v>82</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>327</v>
+        <v>82</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>328</v>
+        <v>82</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>41</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>41</v>
+        <v>356</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>41</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>41</v>
+        <v>366</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>41</v>
+        <v>373</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>41</v>
+        <v>374</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>349</v>
+        <v>82</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>41</v>
+        <v>296</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>41</v>
+        <v>379</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>41</v>
+        <v>380</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>354</v>
+        <v>82</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>355</v>
+        <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>41</v>
+        <v>382</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>41</v>
+        <v>384</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>359</v>
+        <v>386</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>41</v>
+        <v>388</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>363</v>
+        <v>390</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>41</v>
+        <v>391</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>41</v>
+        <v>392</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>178</v>
+        <v>395</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>366</v>
+        <v>396</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>184</v>
+        <v>82</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>371</v>
+        <v>82</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>41</v>
+        <v>399</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>362</v>
+        <v>400</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>372</v>
+        <v>401</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>41</v>
+        <v>402</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>373</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>41</v>
+        <v>405</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>375</v>
+        <v>187</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>376</v>
+        <v>406</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>41</v>
+        <v>296</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>41</v>
+        <v>409</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>41</v>
+        <v>410</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>226</v>
+        <v>412</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>41</v>
+        <v>414</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>380</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>41</v>
+        <v>416</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>382</v>
+        <v>417</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>41</v>
+        <v>421</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>226</v>
+        <v>422</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>385</v>
+        <v>423</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>41</v>
+        <v>414</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>386</v>
+        <v>424</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>386</v>
+        <v>424</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>387</v>
+        <v>187</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>41</v>
+        <v>296</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>41</v>
+        <v>427</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>41</v>
+        <v>428</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>386</v>
+        <v>424</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>391</v>
+        <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>392</v>
+        <v>429</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>41</v>
+        <v>414</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>41</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AO43" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AO44" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="P49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/StructureDefinition-ch-elm-servicerequest-laboratory-order.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-servicerequest-laboratory-order.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="501">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-16T14:46:54+01:00</t>
+    <t>2024-01-31T12:59:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -928,14 +928,6 @@
   </si>
   <si>
     <t>Used for filtering what service request are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://snomed.info/sct"/&gt;
-    &lt;code value="108252007"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>example</t>
@@ -5152,28 +5144,28 @@
         <v>82</v>
       </c>
       <c r="S28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X28" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="T28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X28" t="s" s="2">
+      <c r="Y28" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="Y28" t="s" s="2">
+      <c r="Z28" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>82</v>
@@ -5209,10 +5201,10 @@
         <v>82</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>289</v>
@@ -5223,10 +5215,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5252,10 +5244,10 @@
         <v>110</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5263,7 +5255,7 @@
         <v>82</v>
       </c>
       <c r="Q29" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>82</v>
@@ -5287,11 +5279,11 @@
         <v>181</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="Z29" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>306</v>
-      </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
       </c>
@@ -5308,7 +5300,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5323,16 +5315,16 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5340,10 +5332,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5366,26 +5358,26 @@
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="O30" t="s" s="2">
+      <c r="P30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q30" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="P30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q30" t="s" s="2">
-        <v>317</v>
-      </c>
       <c r="R30" t="s" s="2">
         <v>82</v>
       </c>
@@ -5429,7 +5421,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5444,13 +5436,13 @@
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>82</v>
@@ -5461,14 +5453,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5487,16 +5479,16 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5526,7 +5518,7 @@
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>82</v>
@@ -5544,7 +5536,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5562,10 +5554,10 @@
         <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>82</v>
@@ -5576,14 +5568,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5605,13 +5597,13 @@
         <v>187</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5637,14 +5629,14 @@
         <v>82</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Z32" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>335</v>
-      </c>
       <c r="AA32" t="s" s="2">
         <v>82</v>
       </c>
@@ -5661,7 +5653,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5670,7 +5662,7 @@
         <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>102</v>
@@ -5679,24 +5671,24 @@
         <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO32" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>339</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5719,17 +5711,17 @@
         <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -5778,7 +5770,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5796,10 +5788,10 @@
         <v>82</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>82</v>
@@ -5810,10 +5802,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5836,13 +5828,13 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5893,7 +5885,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>90</v>
@@ -5908,31 +5900,31 @@
         <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>354</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5951,13 +5943,13 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6008,7 +6000,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6023,31 +6015,31 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>364</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6066,13 +6058,13 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6123,7 +6115,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6138,27 +6130,27 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>374</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6181,13 +6173,13 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6214,14 +6206,14 @@
         <v>82</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Y37" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="Z37" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>380</v>
-      </c>
       <c r="AA37" t="s" s="2">
         <v>82</v>
       </c>
@@ -6238,7 +6230,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6259,25 +6251,25 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO37" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>382</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6296,13 +6288,13 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>387</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6353,7 +6345,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6368,31 +6360,31 @@
         <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>392</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6411,16 +6403,16 @@
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6470,7 +6462,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6485,31 +6477,31 @@
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="AN39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>403</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6531,13 +6523,13 @@
         <v>187</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6563,14 +6555,14 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Y40" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="Z40" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="Z40" t="s" s="2">
-        <v>410</v>
-      </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
       </c>
@@ -6587,7 +6579,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6602,16 +6594,16 @@
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6619,14 +6611,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6645,16 +6637,16 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6704,7 +6696,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6719,16 +6711,16 @@
         <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="AM41" t="s" s="2">
-        <v>423</v>
-      </c>
       <c r="AN41" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -6736,10 +6728,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6765,10 +6757,10 @@
         <v>187</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6795,14 +6787,14 @@
         <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="Z42" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>428</v>
-      </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
       </c>
@@ -6819,7 +6811,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6840,10 +6832,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -6851,10 +6843,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6877,13 +6869,13 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6934,7 +6926,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6955,10 +6947,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -6966,10 +6958,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6995,13 +6987,13 @@
         <v>187</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7027,14 +7019,14 @@
         <v>82</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Y44" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="Z44" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="Z44" t="s" s="2">
-        <v>439</v>
-      </c>
       <c r="AA44" t="s" s="2">
         <v>82</v>
       </c>
@@ -7051,7 +7043,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7066,16 +7058,16 @@
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7083,10 +7075,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7109,16 +7101,16 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7168,7 +7160,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7183,16 +7175,16 @@
         <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AM45" t="s" s="2">
-        <v>451</v>
-      </c>
       <c r="AN45" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7200,10 +7192,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7226,13 +7218,13 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7283,7 +7275,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7298,13 +7290,13 @@
         <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>82</v>
@@ -7315,14 +7307,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7341,16 +7333,16 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7400,7 +7392,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7415,13 +7407,13 @@
         <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>82</v>
@@ -7432,10 +7424,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7458,16 +7450,16 @@
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7517,7 +7509,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7535,10 +7527,10 @@
         <v>82</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>82</v>
@@ -7549,14 +7541,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7578,16 +7570,16 @@
         <v>187</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -7612,14 +7604,14 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="Z49" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>482</v>
-      </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
       </c>
@@ -7636,7 +7628,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7654,24 +7646,24 @@
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>484</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7694,13 +7686,13 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>51</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7751,7 +7743,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7766,27 +7758,27 @@
         <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AL50" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>490</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7812,10 +7804,10 @@
         <v>166</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7866,7 +7858,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7884,10 +7876,10 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>82</v>
@@ -7898,10 +7890,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7924,16 +7916,16 @@
         <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7983,7 +7975,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -7998,13 +7990,13 @@
         <v>102</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>133</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>82</v>

--- a/ig/ch-elm/StructureDefinition-ch-elm-servicerequest-laboratory-order.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-servicerequest-laboratory-order.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T12:59:55+01:00</t>
+    <t>2024-02-27T13:26:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-servicerequest-laboratory-order.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-servicerequest-laboratory-order.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T13:26:20+01:00</t>
+    <t>2024-03-28T10:46:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-servicerequest-laboratory-order.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-servicerequest-laboratory-order.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T10:46:20+01:00</t>
+    <t>2024-05-17T13:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Federal Office of Public Health FOPH (https://www.bag.admin.ch/bag/en/home/das-bag/kontakt-standort.html)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1891,17 +1891,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.47265625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.9375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="28.28125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="42.28125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.1328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="35.71484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="27.65625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="100.6171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="105.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1910,27 +1910,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="122.26171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.58203125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.9375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="126.34765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="27.73828125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="84.56640625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="157.5625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="61.046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="85.41796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="163.4453125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="66.88671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-elm/StructureDefinition-ch-elm-servicerequest-laboratory-order.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-servicerequest-laboratory-order.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:32:20+00:00</t>
+    <t>2024-06-17T08:59:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3822,7 +3822,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>90</v>

--- a/ig/ch-elm/StructureDefinition-ch-elm-servicerequest-laboratory-order.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-servicerequest-laboratory-order.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$51</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="495">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.1</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T08:59:23+00:00</t>
+    <t>2024-08-20T16:32:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -273,7 +276,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}ch-lab-sr1:The resource should be conform to the corresponding EU LAB profile {conformsTo('http://hl7.eu/fhir/laboratory/StructureDefinition/ServiceRequest-eu-lab')}code-or-basedOn-required:must have a code for what is beeing requested, or a basedOn element {code.exists() or basedOn.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -432,600 +435,581 @@
     <t>ServiceRequest.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>ServiceRequest.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this order</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
+  </si>
+  <si>
+    <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
+  </si>
+  <si>
+    <t>Request.identifier</t>
+  </si>
+  <si>
+    <t>ORC.2, ORC.3, RF1-6 / RF1-11,</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>ClinicalStatement.identifier</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>ServiceRequest.extension:basedOn-order-or-requisition</t>
-  </si>
-  <si>
-    <t>basedOn-order-or-requisition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-lab-report/StructureDefinition/composition-basedOn-order-or-requisition}
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Document Based On Order</t>
-  </si>
-  <si>
-    <t>This extension provides a link to the order [(Reference(ServiceRequest)] or requisition [ServiceRequest.requisition (i.e., 'Request.groupIdentifier')] that this report document is based on and fulfills.</t>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>ServiceRequest.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(ActivityDefinition|PlanDefinition)
+</t>
+  </si>
+  <si>
+    <t>Instantiates FHIR protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
+  </si>
+  <si>
+    <t>Note: This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DEFN].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.instantiatesUri</t>
+  </si>
+  <si>
+    <t>Instantiates external protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
+  </si>
+  <si>
+    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesUri</t>
+  </si>
+  <si>
+    <t>ServiceRequest.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|ServiceRequest|MedicationRequest)
+</t>
+  </si>
+  <si>
+    <t>What request fulfills</t>
+  </si>
+  <si>
+    <t>Plan/proposal/order fulfilled by this request.</t>
+  </si>
+  <si>
+    <t>Request.basedOn</t>
+  </si>
+  <si>
+    <t>ORC.8 (plus others)</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.replaces</t>
+  </si>
+  <si>
+    <t>supersedes
+priorrenewed order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>What request replaces</t>
+  </si>
+  <si>
+    <t>The request takes the place of the referenced completed or terminated request(s).</t>
+  </si>
+  <si>
+    <t>Request.replaces</t>
+  </si>
+  <si>
+    <t>Handled by message location of ORC (ORC.1=RO or RU)</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RPLC].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.requisition</t>
+  </si>
+  <si>
+    <t>grouperId
+groupIdentifier</t>
+  </si>
+  <si>
+    <t>Original order identifier</t>
+  </si>
+  <si>
+    <t>A shared identifier common to all service requests that were authorized more or less simultaneously by a single author, representing the composite or group identifier.</t>
+  </si>
+  <si>
+    <t>Requests are linked either by a "basedOn" relationship (i.e. one request is fulfilling another) or by having a common requisition. Requests that are part of the same requisition are generally treated independently from the perspective of changing their state or maintaining them after initial creation.</t>
+  </si>
+  <si>
+    <t>Some business processes need to know if multiple items were ordered as part of the same "requisition" for billing or other purposes.</t>
+  </si>
+  <si>
+    <t>Request.groupIdentifier</t>
+  </si>
+  <si>
+    <t>ORC.4</t>
+  </si>
+  <si>
+    <t>.inboundRelationship(typeCode=COMP].source[moodCode=INT].identifier</t>
+  </si>
+  <si>
+    <t>ServiceRequest.status</t>
+  </si>
+  <si>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
+  </si>
+  <si>
+    <t>The status of the order.</t>
+  </si>
+  <si>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>The status of a service order.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.status</t>
+  </si>
+  <si>
+    <t>ORC.5,RF1-1</t>
+  </si>
+  <si>
+    <t>.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Action.currentStatus</t>
+  </si>
+  <si>
+    <t>ServiceRequest.intent</t>
+  </si>
+  <si>
+    <t>proposal | plan | directive | order | original-order | reflex-order | filler-order | instance-order | option</t>
+  </si>
+  <si>
+    <t>Whether the request is a proposal, plan, an original order or a reflex order.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>The kind of service request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-intent|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.intent</t>
+  </si>
+  <si>
+    <t>.moodCode (nuances beyond PRP/PLAN/RQO would need to be elsewhere)</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>ServiceRequest.category</t>
+  </si>
+  <si>
+    <t>Classification of service</t>
+  </si>
+  <si>
+    <t>A code that classifies the service for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
+  </si>
+  <si>
+    <t>There may be multiple axis of categorization depending on the context or use case for retrieving or displaying the resource.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what service request are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Classification of the requested service.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/servicerequest-category</t>
+  </si>
+  <si>
+    <t>RF1-5</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="INT"].code</t>
+  </si>
+  <si>
+    <t>ServiceRequest.priority</t>
+  </si>
+  <si>
+    <t>routine | urgent | asap | stat</t>
+  </si>
+  <si>
+    <t>Indicates how quickly the ServiceRequest should be addressed with respect to other requests.</t>
+  </si>
+  <si>
+    <t>If missing, this task should be performed with normal priority</t>
+  </si>
+  <si>
+    <t>Identifies the level of importance to be assigned to actioning the request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.priority</t>
+  </si>
+  <si>
+    <t>TQ1.9, RF1-2</t>
+  </si>
+  <si>
+    <t>.priorityCode</t>
+  </si>
+  <si>
+    <t>FiveWs.grade</t>
+  </si>
+  <si>
+    <t>ServiceRequest.doNotPerform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>True if service/procedure should not be performed</t>
+  </si>
+  <si>
+    <t>Set this to true if the record is saying that the service/procedure should NOT be performed.</t>
+  </si>
+  <si>
+    <t>In general, only the code and timeframe will be present, though occasional additional qualifiers such as body site or even performer could be included to narrow the scope of the prohibition.  If the ServiceRequest.code and ServiceRequest.doNotPerform both contain negation, that will reinforce prohibition and should not have a double negative interpretation.</t>
+  </si>
+  <si>
+    <t>Used for do not ambulate, do not elevate head of bed, do not flush NG tube, do not take blood pressure on a certain arm, etc.</t>
+  </si>
+  <si>
+    <t>If missing, the request is a positive request e.g. "do perform"</t>
+  </si>
+  <si>
+    <t>Request.doNotPerform</t>
+  </si>
+  <si>
+    <t>.actionNegationInd</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service requested
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-codeableconcept}
+</t>
+  </si>
+  <si>
+    <t>Concept - reference to a terminology or just  text</t>
+  </si>
+  <si>
+    <t>A concept that may be defined by a formal reference to a terminology or ontology or may be provided by text.</t>
+  </si>
+  <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-laboratory-observation</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>ServiceRequest.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this order</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
-  </si>
-  <si>
-    <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
-  </si>
-  <si>
-    <t>Request.identifier</t>
-  </si>
-  <si>
-    <t>ORC.2, ORC.3, RF1-6 / RF1-11,</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.identifier</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>ServiceRequest.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(ActivityDefinition|PlanDefinition)
-</t>
-  </si>
-  <si>
-    <t>Instantiates FHIR protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
-  </si>
-  <si>
-    <t>Note: This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DEFN].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.instantiatesUri</t>
-  </si>
-  <si>
-    <t>Instantiates external protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
-  </si>
-  <si>
-    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesUri</t>
-  </si>
-  <si>
-    <t>ServiceRequest.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|ServiceRequest|MedicationRequest)
-</t>
-  </si>
-  <si>
-    <t>What request fulfills</t>
-  </si>
-  <si>
-    <t>Plan/proposal/order fulfilled by this request.</t>
-  </si>
-  <si>
-    <t>Request.basedOn</t>
-  </si>
-  <si>
-    <t>ORC.8 (plus others)</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.replaces</t>
-  </si>
-  <si>
-    <t>supersedes
-priorrenewed order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>What request replaces</t>
-  </si>
-  <si>
-    <t>The request takes the place of the referenced completed or terminated request(s).</t>
-  </si>
-  <si>
-    <t>Request.replaces</t>
-  </si>
-  <si>
-    <t>Handled by message location of ORC (ORC.1=RO or RU)</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RPLC].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.requisition</t>
-  </si>
-  <si>
-    <t>grouperId
-groupIdentifier</t>
-  </si>
-  <si>
-    <t>Composite Request ID</t>
-  </si>
-  <si>
-    <t>A shared identifier common to all service requests that were authorized more or less simultaneously by a single author, representing the composite or group identifier.</t>
-  </si>
-  <si>
-    <t>Requests are linked either by a "basedOn" relationship (i.e. one request is fulfilling another) or by having a common requisition. Requests that are part of the same requisition are generally treated independently from the perspective of changing their state or maintaining them after initial creation.</t>
-  </si>
-  <si>
-    <t>Some business processes need to know if multiple items were ordered as part of the same "requisition" for billing or other purposes.</t>
-  </si>
-  <si>
-    <t>Request.groupIdentifier</t>
-  </si>
-  <si>
-    <t>ORC.4</t>
-  </si>
-  <si>
-    <t>.inboundRelationship(typeCode=COMP].source[moodCode=INT].identifier</t>
-  </si>
-  <si>
-    <t>ServiceRequest.status</t>
-  </si>
-  <si>
-    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
-  </si>
-  <si>
-    <t>The status of the order.</t>
-  </si>
-  <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
-  </si>
-  <si>
-    <t>completed</t>
-  </si>
-  <si>
-    <t>The status of a service order.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.status</t>
-  </si>
-  <si>
-    <t>ORC.5,RF1-1</t>
-  </si>
-  <si>
-    <t>.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Action.currentStatus</t>
-  </si>
-  <si>
-    <t>ServiceRequest.intent</t>
-  </si>
-  <si>
-    <t>proposal | plan | directive | order | original-order | reflex-order | filler-order | instance-order | option</t>
-  </si>
-  <si>
-    <t>Whether the request is a proposal, plan, an original order or a reflex order.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>The kind of service request.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-intent|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.intent</t>
-  </si>
-  <si>
-    <t>.moodCode (nuances beyond PRP/PLAN/RQO would need to be elsewhere)</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>ServiceRequest.category</t>
-  </si>
-  <si>
-    <t>Classification of service</t>
-  </si>
-  <si>
-    <t>A code that classifies the service for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
-  </si>
-  <si>
-    <t>There may be multiple axis of categorization depending on the context or use case for retrieving or displaying the resource.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what service request are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Classification of the requested service.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/servicerequest-category</t>
-  </si>
-  <si>
-    <t>RF1-5</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="INT"].code</t>
-  </si>
-  <si>
-    <t>ServiceRequest.priority</t>
-  </si>
-  <si>
-    <t>routine | urgent | asap | stat</t>
-  </si>
-  <si>
-    <t>Indicates how quickly the ServiceRequest should be addressed with respect to other requests.</t>
-  </si>
-  <si>
-    <t>If missing, this task should be performed with normal priority</t>
-  </si>
-  <si>
-    <t>Identifies the level of importance to be assigned to actioning the request.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.priority</t>
-  </si>
-  <si>
-    <t>TQ1.9, RF1-2</t>
-  </si>
-  <si>
-    <t>.priorityCode</t>
-  </si>
-  <si>
-    <t>FiveWs.grade</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>True if service/procedure should not be performed</t>
-  </si>
-  <si>
-    <t>Set this to true if the record is saying that the service/procedure should NOT be performed.</t>
-  </si>
-  <si>
-    <t>In general, only the code and timeframe will be present, though occasional additional qualifiers such as body site or even performer could be included to narrow the scope of the prohibition.  If the ServiceRequest.code and ServiceRequest.doNotPerform both contain negation, that will reinforce prohibition and should not have a double negative interpretation.</t>
-  </si>
-  <si>
-    <t>Used for do not ambulate, do not elevate head of bed, do not flush NG tube, do not take blood pressure on a certain arm, etc.</t>
-  </si>
-  <si>
-    <t>If missing, the request is a positive request e.g. "do perform"</t>
-  </si>
-  <si>
-    <t>Request.doNotPerform</t>
-  </si>
-  <si>
-    <t>.actionNegationInd</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service requested
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept {http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-codeableconcept}
-</t>
-  </si>
-  <si>
-    <t>Concept - reference to a terminology or just  text</t>
-  </si>
-  <si>
-    <t>A concept that may be defined by a formal reference to a terminology or ontology or may be provided by text.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-laboratory-observation</t>
-  </si>
-  <si>
     <t>CE/CNE/CWE</t>
   </si>
   <si>
@@ -1214,7 +1198,7 @@
 </t>
   </si>
   <si>
-    <t>Date request signed</t>
+    <t>When the order was placed</t>
   </si>
   <si>
     <t>When the request transitioned to being actionable.</t>
@@ -1422,7 +1406,7 @@
     <t>ServiceRequest.insurance</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Coverage|ClaimResponse)
+    <t xml:space="preserve">Reference(Coverage)
 </t>
   </si>
   <si>
@@ -1452,7 +1436,7 @@
 </t>
   </si>
   <si>
-    <t>Additional clinical information</t>
+    <t>Additional information: e.g AOEs and prior results</t>
   </si>
   <si>
     <t>Additional clinical information about the patient or specimen that may influence the services or their interpretations.     This information includes diagnosis, clinical findings and other observations.  In laboratory ordering these are typically referred to as "ask at order entry questions (AOEs)".  This includes observations explicitly requested by the producer (filler) to provide context or supporting information needed to complete the order. For example,  reporting the amount of inspired oxygen for blood gas measurements.</t>
@@ -1477,13 +1461,15 @@
 </t>
   </si>
   <si>
-    <t>Procedure Samples</t>
+    <t>Specimens to be used by the laboratory procedure</t>
   </si>
   <si>
     <t>One or more specimens that the laboratory procedure will use.</t>
   </si>
   <si>
-    <t>Many diagnostic procedures need a specimen, but the request itself is not actually about the specimen. This element is for when the diagnostic is requested on already existing specimens and the request points to the specimen it applies to.    Conversely, if the request is entered first with an unknown specimen, then the [Specimen](http://hl7.org/fhir/R4/specimen.html) resource points to the ServiceRequest.</t>
+    <t>If the specimen information are known when the order is created then the ServiceRequest.specimen should be used.
+If the ServiceRequest can be updated when the specimen is collected then the ServiceRequest.specimen or the Specimen.request could be used.
+Otherwise the relationship is recorded in the Specimen.request element</t>
   </si>
   <si>
     <t>SPM</t>
@@ -1704,6 +1690,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1882,7 +1883,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO52"/>
+  <dimension ref="A1:AO51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1891,9 +1892,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.1328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.71484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.71484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.65625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2058,7 +2059,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>31</v>
       </c>
@@ -2173,7 +2174,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>89</v>
       </c>
@@ -2290,7 +2291,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>97</v>
       </c>
@@ -2405,7 +2406,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>103</v>
       </c>
@@ -2522,7 +2523,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>109</v>
       </c>
@@ -2639,7 +2640,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>118</v>
       </c>
@@ -2756,7 +2757,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>126</v>
       </c>
@@ -2873,7 +2874,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>134</v>
       </c>
@@ -2882,7 +2883,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2901,15 +2902,17 @@
         <v>82</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>82</v>
@@ -2946,14 +2949,16 @@
         <v>82</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>140</v>
@@ -2977,7 +2982,7 @@
         <v>82</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>82</v>
@@ -2986,18 +2991,16 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3010,22 +3013,26 @@
         <v>82</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>82</v>
       </c>
@@ -3073,7 +3080,7 @@
         <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3082,7 +3089,7 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>141</v>
@@ -3094,7 +3101,7 @@
         <v>82</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>82</v>
@@ -3103,48 +3110,46 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I11" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="J11" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="K11" t="s" s="2">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="N11" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>82</v>
       </c>
@@ -3192,7 +3197,7 @@
         <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3204,30 +3209,30 @@
         <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>82</v>
+        <v>152</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>82</v>
+        <v>156</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3235,7 +3240,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>90</v>
@@ -3247,20 +3252,18 @@
         <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>82</v>
@@ -3309,53 +3312,53 @@
         <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>162</v>
       </c>
       <c r="AN12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO12" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" hidden="true">
+      <c r="A13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AO12" t="s" s="2">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="B13" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>82</v>
@@ -3367,15 +3370,17 @@
         <v>82</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>82</v>
@@ -3412,88 +3417,90 @@
         <v>82</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>82</v>
+        <v>167</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO13" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" hidden="true">
+      <c r="A14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AG13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="2">
-        <v>171</v>
-      </c>
       <c r="B14" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="N14" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>82</v>
       </c>
@@ -3517,52 +3524,52 @@
         <v>82</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>82</v>
+        <v>175</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>82</v>
+        <v>176</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>82</v>
@@ -3571,12 +3578,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3593,25 +3600,25 @@
         <v>82</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>82</v>
@@ -3636,13 +3643,13 @@
         <v>82</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>82</v>
@@ -3660,7 +3667,7 @@
         <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3678,10 +3685,10 @@
         <v>82</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>82</v>
@@ -3690,12 +3697,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3718,19 +3725,19 @@
         <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>187</v>
+        <v>104</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -3743,7 +3750,7 @@
         <v>82</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>82</v>
+        <v>195</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>82</v>
@@ -3755,13 +3762,13 @@
         <v>82</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>194</v>
+        <v>82</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>82</v>
@@ -3779,7 +3786,7 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -3797,10 +3804,10 @@
         <v>82</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>82</v>
@@ -3809,12 +3816,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3822,7 +3829,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>90</v>
@@ -3837,20 +3844,18 @@
         <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>82</v>
       </c>
@@ -3862,7 +3867,7 @@
         <v>82</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>82</v>
@@ -3871,7 +3876,7 @@
         <v>82</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>82</v>
+        <v>204</v>
       </c>
       <c r="X17" t="s" s="2">
         <v>82</v>
@@ -3898,7 +3903,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -3916,10 +3921,10 @@
         <v>82</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>82</v>
@@ -3928,12 +3933,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3941,7 +3946,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>90</v>
@@ -3956,17 +3961,15 @@
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>82</v>
@@ -3979,7 +3982,7 @@
         <v>82</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>210</v>
+        <v>82</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>82</v>
@@ -3988,7 +3991,7 @@
         <v>82</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>211</v>
+        <v>82</v>
       </c>
       <c r="X18" t="s" s="2">
         <v>82</v>
@@ -4045,7 +4048,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>215</v>
       </c>
@@ -4081,7 +4084,9 @@
       <c r="M19" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="N19" s="2"/>
+      <c r="N19" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4130,7 +4135,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4148,10 +4153,10 @@
         <v>82</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>82</v>
@@ -4160,12 +4165,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4176,7 +4181,7 @@
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>82</v>
@@ -4188,16 +4193,16 @@
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4247,13 +4252,13 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>82</v>
@@ -4262,13 +4267,13 @@
         <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>82</v>
+        <v>228</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>82</v>
@@ -4277,12 +4282,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4305,7 +4310,7 @@
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>231</v>
+        <v>104</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>232</v>
@@ -4364,7 +4369,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4382,28 +4387,28 @@
         <v>235</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO21" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" hidden="true">
+      <c r="A22" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AM21" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>238</v>
-      </c>
       <c r="B22" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>82</v>
+        <v>237</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4422,7 +4427,7 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>104</v>
+        <v>238</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>239</v>
@@ -4430,9 +4435,7 @@
       <c r="M22" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N22" t="s" s="2">
-        <v>241</v>
-      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4481,7 +4484,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4496,13 +4499,13 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>236</v>
-      </c>
       <c r="AM22" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>82</v>
@@ -4511,16 +4514,16 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4539,13 +4542,13 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4596,7 +4599,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4611,13 +4614,13 @@
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>82</v>
@@ -4626,26 +4629,26 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -4654,7 +4657,7 @@
         <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>253</v>
+        <v>148</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>254</v>
@@ -4662,8 +4665,12 @@
       <c r="M24" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="N24" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
@@ -4711,13 +4718,13 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>82</v>
@@ -4726,13 +4733,13 @@
         <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>82</v>
@@ -4741,20 +4748,20 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>260</v>
+        <v>82</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>90</v>
@@ -4763,26 +4770,24 @@
         <v>82</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="O25" t="s" s="2">
         <v>264</v>
       </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>82</v>
       </c>
@@ -4791,7 +4796,7 @@
         <v>82</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>82</v>
+        <v>265</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>82</v>
@@ -4806,13 +4811,13 @@
         <v>82</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>82</v>
+        <v>266</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>82</v>
+        <v>267</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>82</v>
@@ -4830,10 +4835,10 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>90</v>
@@ -4845,27 +4850,27 @@
         <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>82</v>
+        <v>271</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>82</v>
+        <v>272</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4891,13 +4896,13 @@
         <v>110</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4908,7 +4913,7 @@
         <v>82</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>82</v>
@@ -4923,31 +4928,31 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="Y26" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>90</v>
@@ -4962,27 +4967,27 @@
         <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>276</v>
+        <v>133</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>279</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4990,33 +4995,35 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
       </c>
@@ -5025,7 +5032,7 @@
         <v>82</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>284</v>
+        <v>82</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>82</v>
@@ -5040,13 +5047,13 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>181</v>
+        <v>288</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>82</v>
@@ -5064,13 +5071,13 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>82</v>
@@ -5079,27 +5086,27 @@
         <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>287</v>
+        <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>133</v>
+        <v>291</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5110,7 +5117,7 @@
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>82</v>
@@ -5122,74 +5129,72 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>187</v>
+        <v>110</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N28" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q28" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="O28" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="P28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q28" s="2"/>
-      <c r="R28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>82</v>
@@ -5198,27 +5203,27 @@
         <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>82</v>
+        <v>299</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5235,72 +5240,76 @@
         <v>82</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>110</v>
+        <v>304</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q29" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5315,35 +5324,35 @@
         <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>307</v>
+        <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>309</v>
+        <v>82</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>82</v>
+        <v>313</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>90</v>
@@ -5352,76 +5361,70 @@
         <v>82</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="Y30" s="2"/>
+      <c r="Z30" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="P30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q30" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5430,19 +5433,19 @@
         <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>82</v>
+        <v>319</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>317</v>
+        <v>82</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>82</v>
+        <v>320</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>82</v>
@@ -5451,23 +5454,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>82</v>
@@ -5476,19 +5479,19 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>321</v>
+        <v>180</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5514,11 +5517,13 @@
         <v>82</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="Y31" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="Z31" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>82</v>
@@ -5536,16 +5541,16 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>147</v>
+        <v>329</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>102</v>
@@ -5554,35 +5559,35 @@
         <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>82</v>
+        <v>332</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>329</v>
+        <v>82</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>82</v>
@@ -5594,18 +5599,18 @@
         <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>187</v>
+        <v>334</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
       </c>
@@ -5629,40 +5634,40 @@
         <v>82</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>295</v>
+        <v>82</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>328</v>
-      </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>335</v>
+        <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>102</v>
@@ -5671,19 +5676,19 @@
         <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>338</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>339</v>
       </c>
@@ -5696,7 +5701,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>90</v>
@@ -5720,9 +5725,7 @@
         <v>342</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>343</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>82</v>
       </c>
@@ -5773,7 +5776,7 @@
         <v>339</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>90</v>
@@ -5785,35 +5788,35 @@
         <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>82</v>
+        <v>343</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>82</v>
+        <v>346</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>82</v>
+        <v>347</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>82</v>
+        <v>349</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>90</v>
@@ -5828,13 +5831,13 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5885,10 +5888,10 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>90</v>
@@ -5900,31 +5903,31 @@
         <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5943,13 +5946,13 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6000,7 +6003,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6015,31 +6018,31 @@
         <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>365</v>
+        <v>82</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6058,13 +6061,13 @@
         <v>91</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6091,13 +6094,13 @@
         <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>82</v>
+        <v>288</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>82</v>
+        <v>372</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>82</v>
@@ -6115,7 +6118,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6130,31 +6133,31 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>369</v>
+        <v>82</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>372</v>
+        <v>82</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>82</v>
+        <v>377</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6173,13 +6176,13 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6206,13 +6209,13 @@
         <v>82</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>295</v>
+        <v>82</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>378</v>
+        <v>82</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>379</v>
+        <v>82</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>82</v>
@@ -6230,7 +6233,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6245,35 +6248,35 @@
         <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>82</v>
+        <v>381</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>82</v>
+        <v>382</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>90</v>
@@ -6288,15 +6291,17 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>391</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6345,7 +6350,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6360,35 +6365,35 @@
         <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>90</v>
@@ -6403,16 +6408,16 @@
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>394</v>
+        <v>180</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6438,13 +6443,13 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>82</v>
+        <v>288</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>82</v>
+        <v>402</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>82</v>
+        <v>403</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6462,7 +6467,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6477,38 +6482,38 @@
         <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>402</v>
+        <v>82</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>82</v>
@@ -6520,16 +6525,16 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>187</v>
+        <v>410</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6555,37 +6560,37 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>295</v>
+        <v>82</v>
       </c>
       <c r="Y40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="Z40" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>403</v>
-      </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>82</v>
@@ -6594,31 +6599,31 @@
         <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>415</v>
+        <v>82</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6637,17 +6642,15 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>416</v>
+        <v>180</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N41" t="s" s="2">
         <v>419</v>
       </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -6672,13 +6675,13 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>82</v>
+        <v>288</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>82</v>
+        <v>420</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>82</v>
+        <v>421</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
@@ -6696,7 +6699,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6711,22 +6714,22 @@
         <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>420</v>
+        <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>421</v>
+        <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>422</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
         <v>423</v>
       </c>
@@ -6754,10 +6757,10 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>187</v>
+        <v>424</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>425</v>
@@ -6787,13 +6790,13 @@
         <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>295</v>
+        <v>82</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>426</v>
+        <v>82</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>427</v>
+        <v>82</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
@@ -6832,21 +6835,21 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6869,15 +6872,17 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -6902,13 +6907,13 @@
         <v>82</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>82</v>
+        <v>288</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>82</v>
+        <v>431</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>82</v>
+        <v>432</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>82</v>
@@ -6926,7 +6931,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6941,27 +6946,27 @@
         <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>82</v>
+        <v>433</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>82</v>
+        <v>434</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6984,16 +6989,16 @@
         <v>91</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>187</v>
+        <v>438</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7019,31 +7024,31 @@
         <v>82</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>295</v>
+        <v>82</v>
       </c>
       <c r="Y44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF44" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7058,27 +7063,27 @@
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7098,20 +7103,18 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>447</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7160,7 +7163,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7175,31 +7178,31 @@
         <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>442</v>
+        <v>82</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>82</v>
+        <v>453</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7218,15 +7221,17 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7275,7 +7280,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7290,13 +7295,13 @@
         <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>82</v>
@@ -7305,23 +7310,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>459</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>82</v>
@@ -7330,19 +7335,19 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7392,7 +7397,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7407,13 +7412,13 @@
         <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>464</v>
+        <v>82</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>82</v>
@@ -7422,23 +7427,23 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>82</v>
+        <v>469</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
@@ -7450,18 +7455,20 @@
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>468</v>
+        <v>180</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>472</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
@@ -7485,13 +7492,13 @@
         <v>82</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>82</v>
+        <v>288</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>82</v>
+        <v>474</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>82</v>
+        <v>475</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>82</v>
@@ -7509,7 +7516,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7527,28 +7534,28 @@
         <v>82</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>82</v>
+        <v>477</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>475</v>
+        <v>82</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7564,23 +7571,19 @@
         <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>187</v>
+        <v>479</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>476</v>
+        <v>51</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>479</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>82</v>
       </c>
@@ -7604,13 +7607,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>295</v>
+        <v>82</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>480</v>
+        <v>82</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>481</v>
+        <v>82</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7628,7 +7631,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7643,10 +7646,10 @@
         <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>82</v>
+        <v>481</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>472</v>
+        <v>330</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>482</v>
@@ -7658,7 +7661,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
         <v>484</v>
       </c>
@@ -7674,7 +7677,7 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
@@ -7683,13 +7686,13 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>51</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>486</v>
@@ -7749,7 +7752,7 @@
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>82</v>
@@ -7758,27 +7761,27 @@
         <v>102</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="AL50" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="AN50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="2">
-        <v>490</v>
-      </c>
       <c r="B51" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7789,7 +7792,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>82</v>
@@ -7798,18 +7801,20 @@
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>166</v>
+        <v>489</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -7858,13 +7863,13 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>82</v>
@@ -7873,139 +7878,40 @@
         <v>102</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>82</v>
+        <v>493</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>336</v>
+        <v>133</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B52" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="O52" s="2"/>
-      <c r="P52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO52" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AO51">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI50">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/ig/ch-elm/StructureDefinition-ch-elm-servicerequest-laboratory-order.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-servicerequest-laboratory-order.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T16:32:03+00:00</t>
+    <t>2024-09-24T11:18:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -838,7 +838,7 @@
     <t>The status of the order.</t>
   </si>
   <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://fhir.ch/ig/ch-lab-report/1.0.0-ballot/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
     <t>completed</t>
@@ -1357,7 +1357,7 @@
     <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://fhir.ch/ig/ch-lab-report/1.0.0-ballot/servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
@@ -1391,7 +1391,7 @@
     <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](http://fhir.ch/ig/ch-lab-report/1.0.0-ballot/servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Request.reasonReference</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-servicerequest-laboratory-order.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-servicerequest-laboratory-order.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.0</t>
+    <t>1.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T11:18:39+00:00</t>
+    <t>2024-10-31T11:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-servicerequest-laboratory-order.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-servicerequest-laboratory-order.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.6.0</t>
+    <t>1.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:15:20+00:00</t>
+    <t>2024-11-28T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-servicerequest-laboratory-order.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-servicerequest-laboratory-order.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.7.0</t>
+    <t>1.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T14:18:34+00:00</t>
+    <t>2025-02-04T09:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -838,7 +838,7 @@
     <t>The status of the order.</t>
   </si>
   <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://fhir.ch/ig/ch-lab-report/1.0.0-ballot/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
     <t>completed</t>
@@ -994,26 +994,31 @@
 </t>
   </si>
   <si>
-    <t>Concept - reference to a terminology or just  text</t>
-  </si>
-  <si>
-    <t>A concept that may be defined by a formal reference to a terminology or ontology or may be provided by text.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+    <t>What is being requested/ordered</t>
+  </si>
+  <si>
+    <t>A code that identifies a particular service (i.e., procedure, diagnostic investigation, or panel of investigations) that have been requested.</t>
+  </si>
+  <si>
+    <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-laboratory-observation</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE</t>
-  </si>
-  <si>
-    <t>CD</t>
+    <t>Request.code</t>
+  </si>
+  <si>
+    <t>PR1-3 / OBR-4  (varies by domain)</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>Procedure.procedureCode</t>
   </si>
   <si>
     <t>ServiceRequest.orderDetail</t>
@@ -1045,12 +1050,6 @@
     <t>NTE</t>
   </si>
   <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>Procedure.procedureCode</t>
-  </si>
-  <si>
     <t>ServiceRequest.quantity[x]</t>
   </si>
   <si>
@@ -1357,7 +1356,7 @@
     <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://fhir.ch/ig/ch-lab-report/1.0.0-ballot/servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
@@ -1391,7 +1390,7 @@
     <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](http://fhir.ch/ig/ch-lab-report/1.0.0-ballot/servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Request.reasonReference</t>
@@ -5364,7 +5363,7 @@
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>314</v>
@@ -5433,13 +5432,13 @@
         <v>90</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>319</v>
+        <v>82</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>82</v>
+        <v>319</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>320</v>
@@ -5448,22 +5447,22 @@
         <v>321</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>82</v>
+        <v>322</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>82</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5485,13 +5484,13 @@
         <v>180</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5520,10 +5519,10 @@
         <v>288</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>82</v>
@@ -5541,7 +5540,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5550,7 +5549,7 @@
         <v>81</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>102</v>
@@ -5559,16 +5558,16 @@
         <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" hidden="true">
@@ -5676,7 +5675,7 @@
         <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>338</v>
@@ -7649,7 +7648,7 @@
         <v>481</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>482</v>
@@ -7764,7 +7763,7 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>487</v>

--- a/ig/ch-elm/StructureDefinition-ch-elm-servicerequest-laboratory-order.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-servicerequest-laboratory-order.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:19:33+00:00</t>
+    <t>2025-03-18T17:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-servicerequest-laboratory-order.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-servicerequest-laboratory-order.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-servicerequest-laboratory-order.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-servicerequest-laboratory-order.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.1</t>
+    <t>1.10.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T08:01:17+00:00</t>
+    <t>2025-06-23T21:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1891,17 +1891,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.71484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.71484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="30.62109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.62109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="37.7265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="105.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.37890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1910,27 +1910,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="126.34765625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="108.3203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="85.41796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="163.4453125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="66.88671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="73.23046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="140.125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="57.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-elm/StructureDefinition-ch-elm-servicerequest-laboratory-order.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-servicerequest-laboratory-order.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-servicerequest-laboratory-order.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-servicerequest-laboratory-order.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -599,7 +599,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -687,7 +687,7 @@
     <t>ServiceRequest.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -756,7 +756,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|ServiceRequest|MedicationRequest)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-elm/StructureDefinition/ch-elm-servicerequest-previous-laboratory-order)
 </t>
   </si>
   <si>
@@ -808,7 +808,7 @@
 groupIdentifier</t>
   </si>
   <si>
-    <t>Original order identifier</t>
+    <t>Original order identifier, use basedOn ServiceRequest identifier if additional order information is provided</t>
   </si>
   <si>
     <t>A shared identifier common to all service requests that were authorized more or less simultaneously by a single author, representing the composite or group identifier.</t>
@@ -4628,7 +4628,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>252</v>
       </c>
@@ -7894,12 +7894,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO51">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/ig/ch-elm/StructureDefinition-ch-elm-servicerequest-laboratory-order.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-servicerequest-laboratory-order.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-ch-elm-servicerequest-laboratory-order.xlsx
+++ b/ig/ch-elm/StructureDefinition-ch-elm-servicerequest-laboratory-order.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
